--- a/excel/finished/焦化/CK67-干熄焦报表设计1107.xlsx
+++ b/excel/finished/焦化/CK67-干熄焦报表设计1107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7860" tabRatio="709" firstSheet="10" activeTab="12"/>
+    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="709" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1.CDQ操作运行报表（日）" sheetId="2" r:id="rId1"/>
@@ -4224,10 +4224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="57">
     <font>
@@ -4374,9 +4374,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4389,23 +4389,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4427,16 +4420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4444,14 +4429,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4473,6 +4451,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -4481,25 +4482,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4616,7 +4616,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4628,49 +4694,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4682,55 +4718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4754,31 +4748,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4791,6 +4773,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5594,11 +5594,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5620,35 +5656,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5662,32 +5674,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5699,10 +5699,10 @@
     <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5711,130 +5711,130 @@
     <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="71" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="67" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">

--- a/excel/finished/焦化/CK67-干熄焦报表设计1107.xlsx
+++ b/excel/finished/焦化/CK67-干熄焦报表设计1107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="709" firstSheet="10" activeTab="12"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="709"/>
   </bookViews>
   <sheets>
     <sheet name="1.CDQ操作运行报表（日）" sheetId="2" r:id="rId1"/>
@@ -4224,9 +4224,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="57">
@@ -4361,14 +4361,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4376,7 +4376,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4389,32 +4389,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4429,37 +4413,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4474,7 +4428,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4482,7 +4444,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4495,19 +4495,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4610,7 +4610,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4622,7 +4712,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4634,13 +4754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4652,109 +4772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4767,24 +4785,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5595,31 +5595,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5640,16 +5634,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5665,11 +5659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5678,7 +5678,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5699,10 +5699,10 @@
     <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5711,133 +5711,133 @@
     <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="67" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="67" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -7278,7 +7278,7 @@
   </sheetPr>
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="AZ4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AZ4" workbookViewId="0">
       <selection activeCell="CA9" sqref="CA9"/>
     </sheetView>
   </sheetViews>
@@ -17964,7 +17964,7 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/excel/finished/焦化/CK67-干熄焦报表设计1107.xlsx
+++ b/excel/finished/焦化/CK67-干熄焦报表设计1107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="709"/>
+    <workbookView windowWidth="19935" windowHeight="7860" tabRatio="709" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1.CDQ操作运行报表（日）" sheetId="2" r:id="rId1"/>
@@ -4224,10 +4224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="57">
     <font>
@@ -4361,14 +4361,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4382,15 +4411,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4398,22 +4436,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4424,22 +4447,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4457,24 +4464,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4488,6 +4495,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4495,19 +4503,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4610,7 +4610,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4622,31 +4754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4658,97 +4772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4760,37 +4784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5594,6 +5594,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5618,17 +5627,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5650,11 +5655,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5673,24 +5691,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5699,10 +5699,10 @@
     <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5711,133 +5711,133 @@
     <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="67" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="71" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="70" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="71" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="72" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -7278,7 +7278,7 @@
   </sheetPr>
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AZ4" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="AZ4" workbookViewId="0">
       <selection activeCell="CA9" sqref="CA9"/>
     </sheetView>
   </sheetViews>
@@ -17964,7 +17964,7 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
